--- a/Practica 31 Ene.xlsx
+++ b/Practica 31 Ene.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://analiticaempresarial-my.sharepoint.com/personal/administrador_analiticaempresarial_onmicrosoft_com/Documents/TomaDecisionesDatos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{C84620E2-C0BC-449C-90C0-7EC2EC37989E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D24AF581-F3FE-40D2-B3CE-1DC4A052CBA9}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="8_{C84620E2-C0BC-449C-90C0-7EC2EC37989E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D6F4ABC-1938-4AB1-A5CB-3D1C65B1ACEE}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1530" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{901934BF-1E05-4DD9-AF27-DE5BDCDE027E}"/>
+    <workbookView xWindow="-28920" yWindow="1530" windowWidth="29040" windowHeight="15720" xr2:uid="{901934BF-1E05-4DD9-AF27-DE5BDCDE027E}"/>
   </bookViews>
   <sheets>
     <sheet name="Nombres" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="60">
   <si>
     <t>Nombre</t>
   </si>
@@ -212,9 +212,6 @@
   </si>
   <si>
     <t>Profesiones</t>
-  </si>
-  <si>
-    <t>Id_Profesiones</t>
   </si>
   <si>
     <t>Id_Profesion</t>
@@ -585,8 +582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E92C017-BCCD-4EAE-B52B-110032DDCB18}">
   <dimension ref="D1:F30"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -597,7 +594,7 @@
   <sheetData>
     <row r="1" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="4:6" x14ac:dyDescent="0.3">
@@ -605,7 +602,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F2" t="s">
         <v>57</v>
@@ -619,7 +616,7 @@
         <v>400</v>
       </c>
       <c r="F3" t="str">
-        <f>VLOOKUP(E3,Profesiones!A$1:B$29,2,FALSE)</f>
+        <f>VLOOKUP(E3,Profesiones!$A$1:$B$29,2,0)</f>
         <v>Médico</v>
       </c>
     </row>
@@ -631,7 +628,7 @@
         <v>204</v>
       </c>
       <c r="F4" t="str">
-        <f>VLOOKUP(E4,Profesiones!A$1:B$29,2,FALSE)</f>
+        <f>VLOOKUP(E4,Profesiones!$A$1:$B$29,2,0)</f>
         <v>Abogada</v>
       </c>
     </row>
@@ -643,7 +640,7 @@
         <v>115</v>
       </c>
       <c r="F5" t="str">
-        <f>VLOOKUP(E5,Profesiones!A$1:B$29,2,FALSE)</f>
+        <f>VLOOKUP(E5,Profesiones!$A$1:$B$29,2,0)</f>
         <v>Ingeniero</v>
       </c>
     </row>
@@ -655,7 +652,7 @@
         <v>667</v>
       </c>
       <c r="F6" t="str">
-        <f>VLOOKUP(E6,Profesiones!A$1:B$29,2,FALSE)</f>
+        <f>VLOOKUP(E6,Profesiones!$A$1:$B$29,2,0)</f>
         <v>Profesora</v>
       </c>
     </row>
@@ -667,7 +664,7 @@
         <v>630</v>
       </c>
       <c r="F7" t="str">
-        <f>VLOOKUP(E7,Profesiones!A$1:B$29,2,FALSE)</f>
+        <f>VLOOKUP(E7,Profesiones!$A$1:$B$29,2,0)</f>
         <v>Arquitecto</v>
       </c>
     </row>
@@ -679,7 +676,7 @@
         <v>568</v>
       </c>
       <c r="F8" t="str">
-        <f>VLOOKUP(E8,Profesiones!A$1:B$29,2,FALSE)</f>
+        <f>VLOOKUP(E8,Profesiones!$A$1:$B$29,2,0)</f>
         <v>Dentista</v>
       </c>
     </row>
@@ -691,7 +688,7 @@
         <v>668</v>
       </c>
       <c r="F9" t="str">
-        <f>VLOOKUP(E9,Profesiones!A$1:B$29,2,FALSE)</f>
+        <f>VLOOKUP(E9,Profesiones!$A$1:$B$29,2,0)</f>
         <v>Psicólogo</v>
       </c>
     </row>
@@ -703,7 +700,7 @@
         <v>245</v>
       </c>
       <c r="F10" t="str">
-        <f>VLOOKUP(E10,Profesiones!A$1:B$29,2,FALSE)</f>
+        <f>VLOOKUP(E10,Profesiones!$A$1:$B$29,2,0)</f>
         <v>Enfermera</v>
       </c>
     </row>
@@ -715,7 +712,7 @@
         <v>561</v>
       </c>
       <c r="F11" t="str">
-        <f>VLOOKUP(E11,Profesiones!A$1:B$29,2,FALSE)</f>
+        <f>VLOOKUP(E11,Profesiones!$A$1:$B$29,2,0)</f>
         <v>Veterinario</v>
       </c>
     </row>
@@ -727,7 +724,7 @@
         <v>766</v>
       </c>
       <c r="F12" t="str">
-        <f>VLOOKUP(E12,Profesiones!A$1:B$29,2,FALSE)</f>
+        <f>VLOOKUP(E12,Profesiones!$A$1:$B$29,2,0)</f>
         <v>Periodista</v>
       </c>
     </row>
@@ -739,7 +736,7 @@
         <v>163</v>
       </c>
       <c r="F13" t="str">
-        <f>VLOOKUP(E13,Profesiones!A$1:B$29,2,FALSE)</f>
+        <f>VLOOKUP(E13,Profesiones!$A$1:$B$29,2,0)</f>
         <v>Farmacéutico</v>
       </c>
     </row>
@@ -751,7 +748,7 @@
         <v>197</v>
       </c>
       <c r="F14" t="str">
-        <f>VLOOKUP(E14,Profesiones!A$1:B$29,2,FALSE)</f>
+        <f>VLOOKUP(E14,Profesiones!$A$1:$B$29,2,0)</f>
         <v>Contador</v>
       </c>
     </row>
@@ -763,7 +760,7 @@
         <v>989</v>
       </c>
       <c r="F15" t="str">
-        <f>VLOOKUP(E15,Profesiones!A$1:B$29,2,FALSE)</f>
+        <f>VLOOKUP(E15,Profesiones!$A$1:$B$29,2,0)</f>
         <v>Abogado</v>
       </c>
     </row>
@@ -775,7 +772,7 @@
         <v>629</v>
       </c>
       <c r="F16" t="str">
-        <f>VLOOKUP(E16,Profesiones!A$1:B$29,2,FALSE)</f>
+        <f>VLOOKUP(E16,Profesiones!$A$1:$B$29,2,0)</f>
         <v>Ingeniero civil</v>
       </c>
     </row>
@@ -787,7 +784,7 @@
         <v>124</v>
       </c>
       <c r="F17" t="str">
-        <f>VLOOKUP(E17,Profesiones!A$1:B$29,2,FALSE)</f>
+        <f>VLOOKUP(E17,Profesiones!$A$1:$B$29,2,0)</f>
         <v>Electricista</v>
       </c>
     </row>
@@ -799,7 +796,7 @@
         <v>166</v>
       </c>
       <c r="F18" t="str">
-        <f>VLOOKUP(E18,Profesiones!A$1:B$29,2,FALSE)</f>
+        <f>VLOOKUP(E18,Profesiones!$A$1:$B$29,2,0)</f>
         <v>Trabajadora social</v>
       </c>
     </row>
@@ -811,7 +808,7 @@
         <v>770</v>
       </c>
       <c r="F19" t="str">
-        <f>VLOOKUP(E19,Profesiones!A$1:B$29,2,FALSE)</f>
+        <f>VLOOKUP(E19,Profesiones!$A$1:$B$29,2,0)</f>
         <v>Político</v>
       </c>
     </row>
@@ -823,7 +820,7 @@
         <v>233</v>
       </c>
       <c r="F20" t="str">
-        <f>VLOOKUP(E20,Profesiones!A$1:B$29,2,FALSE)</f>
+        <f>VLOOKUP(E20,Profesiones!$A$1:$B$29,2,0)</f>
         <v>Empresaria</v>
       </c>
     </row>
@@ -835,7 +832,7 @@
         <v>218</v>
       </c>
       <c r="F21" t="str">
-        <f>VLOOKUP(E21,Profesiones!A$1:B$29,2,FALSE)</f>
+        <f>VLOOKUP(E21,Profesiones!$A$1:$B$29,2,0)</f>
         <v>Médico veterinario</v>
       </c>
     </row>
@@ -847,7 +844,7 @@
         <v>828</v>
       </c>
       <c r="F22" t="str">
-        <f>VLOOKUP(E22,Profesiones!A$1:B$29,2,FALSE)</f>
+        <f>VLOOKUP(E22,Profesiones!$A$1:$B$29,2,0)</f>
         <v>Fotógrafa</v>
       </c>
     </row>
@@ -859,7 +856,7 @@
         <v>520</v>
       </c>
       <c r="F23" t="str">
-        <f>VLOOKUP(E23,Profesiones!A$1:B$29,2,FALSE)</f>
+        <f>VLOOKUP(E23,Profesiones!$A$1:$B$29,2,0)</f>
         <v>Chef</v>
       </c>
     </row>
@@ -871,7 +868,7 @@
         <v>159</v>
       </c>
       <c r="F24" t="str">
-        <f>VLOOKUP(E24,Profesiones!A$1:B$29,2,FALSE)</f>
+        <f>VLOOKUP(E24,Profesiones!$A$1:$B$29,2,0)</f>
         <v>Programadora</v>
       </c>
     </row>
@@ -883,7 +880,7 @@
         <v>316</v>
       </c>
       <c r="F25" t="str">
-        <f>VLOOKUP(E25,Profesiones!A$1:B$29,2,FALSE)</f>
+        <f>VLOOKUP(E25,Profesiones!$A$1:$B$29,2,0)</f>
         <v>Médico dentista</v>
       </c>
     </row>
@@ -895,7 +892,7 @@
         <v>476</v>
       </c>
       <c r="F26" t="str">
-        <f>VLOOKUP(E26,Profesiones!A$1:B$29,2,FALSE)</f>
+        <f>VLOOKUP(E26,Profesiones!$A$1:$B$29,2,0)</f>
         <v>Decorador</v>
       </c>
     </row>
@@ -907,7 +904,7 @@
         <v>809</v>
       </c>
       <c r="F27" t="str">
-        <f>VLOOKUP(E27,Profesiones!A$1:B$29,2,FALSE)</f>
+        <f>VLOOKUP(E27,Profesiones!$A$1:$B$29,2,0)</f>
         <v>Jardinera</v>
       </c>
     </row>
@@ -919,7 +916,7 @@
         <v>700</v>
       </c>
       <c r="F28" t="str">
-        <f>VLOOKUP(E28,Profesiones!A$1:B$29,2,FALSE)</f>
+        <f>VLOOKUP(E28,Profesiones!$A$1:$B$29,2,0)</f>
         <v>Actriz</v>
       </c>
     </row>
@@ -931,7 +928,7 @@
         <v>676</v>
       </c>
       <c r="F29" t="str">
-        <f>VLOOKUP(E29,Profesiones!A$1:B$29,2,FALSE)</f>
+        <f>VLOOKUP(E29,Profesiones!$A$1:$B$29,2,0)</f>
         <v>Músico</v>
       </c>
     </row>
@@ -943,7 +940,7 @@
         <v>785</v>
       </c>
       <c r="F30" t="str">
-        <f>VLOOKUP(E30,Profesiones!A$1:B$29,2,FALSE)</f>
+        <f>VLOOKUP(E30,Profesiones!$A$1:$B$29,2,0)</f>
         <v>Modista</v>
       </c>
     </row>
@@ -970,7 +967,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1318,9 +1315,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EC8DD7E-2A06-4D4A-8A77-966F81FFE62C}">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="290" zoomScaleNormal="290" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
+    <sheetView zoomScale="270" zoomScaleNormal="270" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
